--- a/PRACTICAS/PRACTICA_4/Punto6.xlsx
+++ b/PRACTICAS/PRACTICA_4/Punto6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Agus\Escritorio\Facultad\2DO AÑO\2do_Semestre\ISO\PRACTICAS\PRACTICA_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CF7381-D716-4526-AEEE-28CF348FFB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038D430-CBEE-4EAE-A18A-4D13BF2B08EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C35E20CF-38B1-4293-9A7C-D94524EF66C3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>Proceso</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Q=1</t>
   </si>
   <si>
-    <t>Q=4</t>
-  </si>
-  <si>
     <t>6&lt;</t>
   </si>
   <si>
@@ -110,19 +107,19 @@
     <t>9.8</t>
   </si>
   <si>
-    <t>8.4</t>
+    <t>7.8</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>3.6</t>
   </si>
   <si>
-    <t>11.4</t>
+    <t>11.6</t>
   </si>
   <si>
-    <t>7.2</t>
+    <t>7.4</t>
   </si>
   <si>
-    <t>11.2</t>
+    <t>Q=6</t>
   </si>
 </sst>
 </file>
@@ -548,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F1DE78-DEF4-47CE-B9B2-11E572E04EC6}">
   <dimension ref="A1:BB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -940,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1014,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1">
@@ -1092,10 +1089,10 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC7"/>
       <c r="AD7"/>
@@ -1436,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1">
@@ -1569,23 +1566,23 @@
         <v>9</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1">
         <v>3</v>
       </c>
-      <c r="P15" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="R15" s="1">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1594,10 +1591,10 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC15"/>
       <c r="AD15"/>
@@ -1646,18 +1643,16 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1666,10 +1661,10 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC16"/>
       <c r="AD16"/>
@@ -1740,10 +1735,10 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="AC17"/>
       <c r="AD17"/>
@@ -2008,10 +2003,10 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
-      <c r="AA22" s="6">
+      <c r="AA22" s="1">
         <v>5</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AB22" s="1">
         <v>1</v>
       </c>
       <c r="AC22"/>
@@ -2084,14 +2079,14 @@
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
-      <c r="AA23" s="6">
+      <c r="AA23" s="1">
         <v>18</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AB23" s="1">
         <v>12</v>
       </c>
       <c r="AC23"/>
@@ -2164,10 +2159,10 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="6">
+      <c r="AA24" s="1">
         <v>12</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AB24" s="1">
         <v>8</v>
       </c>
       <c r="AC24"/>
@@ -2239,14 +2234,14 @@
       </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z25" s="6"/>
-      <c r="AA25" s="6">
-        <v>14</v>
-      </c>
-      <c r="AB25" s="6">
-        <v>9</v>
+      <c r="AA25" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>10</v>
       </c>
       <c r="AC25"/>
       <c r="AD25"/>
@@ -2306,7 +2301,7 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
@@ -2314,10 +2309,10 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
-      <c r="AA26" s="6">
+      <c r="AA26" s="1">
         <v>8</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AB26" s="1">
         <v>6</v>
       </c>
       <c r="AC26"/>
@@ -2422,11 +2417,11 @@
         <v>4</v>
       </c>
       <c r="Z27" s="6"/>
-      <c r="AA27" s="6" t="s">
+      <c r="AA27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB27" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="AC27"/>
       <c r="AD27"/>
@@ -2752,29 +2747,29 @@
       <c r="L33" s="1">
         <v>4</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="M33" s="1">
+        <v>5</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="1">
-        <v>5</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AB33" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC33"/>
       <c r="AD33"/>
@@ -2824,20 +2819,20 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1">
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="1">
         <v>1</v>
       </c>
-      <c r="N34" s="1">
-        <v>2</v>
-      </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="1">
         <v>3</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -2847,10 +2842,10 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB34" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC34"/>
       <c r="AD34"/>
@@ -2904,31 +2899,31 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1">
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="1">
         <v>1</v>
       </c>
-      <c r="R35" s="1">
-        <v>2</v>
-      </c>
-      <c r="S35" s="1">
+      <c r="T35" s="1">
+        <v>2</v>
+      </c>
+      <c r="U35" s="1">
         <v>3</v>
       </c>
-      <c r="T35" s="1">
-        <v>4</v>
-      </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
+      <c r="V35" s="1">
+        <v>4</v>
+      </c>
+      <c r="W35" s="1">
+        <v>5</v>
+      </c>
       <c r="X35" s="1"/>
-      <c r="Y35" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y35" s="6"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB35" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC35"/>
       <c r="AD35"/>
@@ -2988,19 +2983,19 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="1">
+      <c r="W36" s="6"/>
+      <c r="X36" s="6">
         <v>1</v>
       </c>
-      <c r="X36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y36" s="1"/>
+      <c r="Y36" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB36" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC36"/>
       <c r="AD36"/>
@@ -3034,7 +3029,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2" t="s">
@@ -3053,14 +3048,10 @@
         <v>4</v>
       </c>
       <c r="I37" s="4">
-        <v>2</v>
-      </c>
-      <c r="J37" s="4">
         <v>5</v>
       </c>
-      <c r="K37" s="4">
-        <v>4</v>
-      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3077,10 +3068,10 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB37" s="1">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="AC37"/>
       <c r="AD37"/>

--- a/PRACTICAS/PRACTICA_4/Punto6.xlsx
+++ b/PRACTICAS/PRACTICA_4/Punto6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Agus\Escritorio\Facultad\2DO AÑO\2do_Semestre\ISO\PRACTICAS\PRACTICA_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038D430-CBEE-4EAE-A18A-4D13BF2B08EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C99EEB-DF5F-450B-B661-8494F6517ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C35E20CF-38B1-4293-9A7C-D94524EF66C3}"/>
   </bookViews>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F1DE78-DEF4-47CE-B9B2-11E572E04EC6}">
   <dimension ref="A1:BB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
